--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dag1-Lama4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="H2">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="I2">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="J2">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9557383878013</v>
+        <v>55.00581500000001</v>
       </c>
       <c r="N2">
-        <v>11.9557383878013</v>
+        <v>165.017445</v>
       </c>
       <c r="O2">
-        <v>0.07351115824356583</v>
+        <v>0.2636796788967745</v>
       </c>
       <c r="P2">
-        <v>0.07351115824356583</v>
+        <v>0.2636796788967746</v>
       </c>
       <c r="Q2">
-        <v>111.3512668172377</v>
+        <v>625.0901154197667</v>
       </c>
       <c r="R2">
-        <v>111.3512668172377</v>
+        <v>5625.8110387779</v>
       </c>
       <c r="S2">
-        <v>0.00243419502057875</v>
+        <v>0.01034328056772765</v>
       </c>
       <c r="T2">
-        <v>0.00243419502057875</v>
+        <v>0.01034328056772765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="H3">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="I3">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="J3">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>139.354778519998</v>
+        <v>139.747495</v>
       </c>
       <c r="N3">
-        <v>139.354778519998</v>
+        <v>419.242485</v>
       </c>
       <c r="O3">
-        <v>0.8568380173183575</v>
+        <v>0.6699032567416481</v>
       </c>
       <c r="P3">
-        <v>0.8568380173183575</v>
+        <v>0.6699032567416482</v>
       </c>
       <c r="Q3">
-        <v>1297.898182605772</v>
+        <v>1588.100781329633</v>
       </c>
       <c r="R3">
-        <v>1297.898182605772</v>
+        <v>14292.9070319667</v>
       </c>
       <c r="S3">
-        <v>0.02837271082423014</v>
+        <v>0.02627808622455855</v>
       </c>
       <c r="T3">
-        <v>0.02837271082423014</v>
+        <v>0.02627808622455855</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.313625240483001</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="H4">
-        <v>9.313625240483001</v>
+        <v>34.09222</v>
       </c>
       <c r="I4">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="J4">
-        <v>0.03311327257983732</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.3278998096756</v>
+        <v>0.04249866666666666</v>
       </c>
       <c r="N4">
-        <v>11.3278998096756</v>
+        <v>0.127496</v>
       </c>
       <c r="O4">
-        <v>0.06965082443807667</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="P4">
-        <v>0.06965082443807667</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="Q4">
-        <v>105.5038135890572</v>
+        <v>0.4829579645688888</v>
       </c>
       <c r="R4">
-        <v>105.5038135890572</v>
+        <v>4.346621681119999</v>
       </c>
       <c r="S4">
-        <v>0.002306366735028427</v>
+        <v>7.991439324872614E-06</v>
       </c>
       <c r="T4">
-        <v>0.002306366735028427</v>
+        <v>7.991439324872617E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.6518904935864</v>
+        <v>11.36407333333333</v>
       </c>
       <c r="H5">
-        <v>36.6518904935864</v>
+        <v>34.09222</v>
       </c>
       <c r="I5">
-        <v>0.130310594332818</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="J5">
-        <v>0.130310594332818</v>
+        <v>0.03922668827193482</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.9557383878013</v>
+        <v>13.81266366666667</v>
       </c>
       <c r="N5">
-        <v>11.9557383878013</v>
+        <v>41.437991</v>
       </c>
       <c r="O5">
-        <v>0.07351115824356583</v>
+        <v>0.06621333981390531</v>
       </c>
       <c r="P5">
-        <v>0.07351115824356583</v>
+        <v>0.06621333981390533</v>
       </c>
       <c r="Q5">
-        <v>438.2004141596605</v>
+        <v>156.9681228366689</v>
       </c>
       <c r="R5">
-        <v>438.2004141596605</v>
+        <v>1412.71310553002</v>
       </c>
       <c r="S5">
-        <v>0.009579282720812897</v>
+        <v>0.002597330040323755</v>
       </c>
       <c r="T5">
-        <v>0.009579282720812897</v>
+        <v>0.002597330040323755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="H6">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="I6">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="J6">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.354778519998</v>
+        <v>55.00581500000001</v>
       </c>
       <c r="N6">
-        <v>139.354778519998</v>
+        <v>165.017445</v>
       </c>
       <c r="O6">
-        <v>0.8568380173183575</v>
+        <v>0.2636796788967745</v>
       </c>
       <c r="P6">
-        <v>0.8568380173183575</v>
+        <v>0.2636796788967746</v>
       </c>
       <c r="Q6">
-        <v>5107.616082072953</v>
+        <v>2017.1138413998</v>
       </c>
       <c r="R6">
-        <v>5107.616082072953</v>
+        <v>18154.0245725982</v>
       </c>
       <c r="S6">
-        <v>0.1116550712837086</v>
+        <v>0.03337690659951405</v>
       </c>
       <c r="T6">
-        <v>0.1116550712837086</v>
+        <v>0.03337690659951406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.6518904935864</v>
+        <v>36.67092</v>
       </c>
       <c r="H7">
-        <v>36.6518904935864</v>
+        <v>110.01276</v>
       </c>
       <c r="I7">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="J7">
-        <v>0.130310594332818</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.3278998096756</v>
+        <v>139.747495</v>
       </c>
       <c r="N7">
-        <v>11.3278998096756</v>
+        <v>419.242485</v>
       </c>
       <c r="O7">
-        <v>0.06965082443807667</v>
+        <v>0.6699032567416481</v>
       </c>
       <c r="P7">
-        <v>0.06965082443807667</v>
+        <v>0.6699032567416482</v>
       </c>
       <c r="Q7">
-        <v>415.1889433465483</v>
+        <v>5124.669209345398</v>
       </c>
       <c r="R7">
-        <v>415.1889433465483</v>
+        <v>46122.02288410859</v>
       </c>
       <c r="S7">
-        <v>0.009076240328296535</v>
+        <v>0.08479719986207017</v>
       </c>
       <c r="T7">
-        <v>0.009076240328296535</v>
+        <v>0.08479719986207018</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.66121731457884</v>
+        <v>36.67092</v>
       </c>
       <c r="H8">
-        <v>4.66121731457884</v>
+        <v>110.01276</v>
       </c>
       <c r="I8">
-        <v>0.01657229655543903</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="J8">
-        <v>0.01657229655543903</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.9557383878013</v>
+        <v>0.04249866666666666</v>
       </c>
       <c r="N8">
-        <v>11.9557383878013</v>
+        <v>0.127496</v>
       </c>
       <c r="O8">
-        <v>0.07351115824356583</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="P8">
-        <v>0.07351115824356583</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="Q8">
-        <v>55.72829478179433</v>
+        <v>1.55846520544</v>
       </c>
       <c r="R8">
-        <v>55.72829478179433</v>
+        <v>14.02618684896</v>
       </c>
       <c r="S8">
-        <v>0.00121824871454618</v>
+        <v>2.578771040729448E-05</v>
       </c>
       <c r="T8">
-        <v>0.00121824871454618</v>
+        <v>2.578771040729448E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.66121731457884</v>
+        <v>36.67092</v>
       </c>
       <c r="H9">
-        <v>4.66121731457884</v>
+        <v>110.01276</v>
       </c>
       <c r="I9">
-        <v>0.01657229655543903</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="J9">
-        <v>0.01657229655543903</v>
+        <v>0.126581262307212</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>139.354778519998</v>
+        <v>13.81266366666667</v>
       </c>
       <c r="N9">
-        <v>139.354778519998</v>
+        <v>41.437991</v>
       </c>
       <c r="O9">
-        <v>0.8568380173183575</v>
+        <v>0.06621333981390531</v>
       </c>
       <c r="P9">
-        <v>0.8568380173183575</v>
+        <v>0.06621333981390533</v>
       </c>
       <c r="Q9">
-        <v>649.5629065067142</v>
+        <v>506.5230843072399</v>
       </c>
       <c r="R9">
-        <v>649.5629065067142</v>
+        <v>4558.707758765159</v>
       </c>
       <c r="S9">
-        <v>0.01419977372297423</v>
+        <v>0.008381368135220514</v>
       </c>
       <c r="T9">
-        <v>0.01419977372297423</v>
+        <v>0.008381368135220515</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.66121731457884</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="H10">
-        <v>4.66121731457884</v>
+        <v>14.065637</v>
       </c>
       <c r="I10">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="J10">
-        <v>0.01657229655543903</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.3278998096756</v>
+        <v>55.00581500000001</v>
       </c>
       <c r="N10">
-        <v>11.3278998096756</v>
+        <v>165.017445</v>
       </c>
       <c r="O10">
-        <v>0.06965082443807667</v>
+        <v>0.2636796788967745</v>
       </c>
       <c r="P10">
-        <v>0.06965082443807667</v>
+        <v>0.2636796788967746</v>
       </c>
       <c r="Q10">
-        <v>52.80180273067425</v>
+        <v>257.8972755597183</v>
       </c>
       <c r="R10">
-        <v>52.80180273067425</v>
+        <v>2321.075480037465</v>
       </c>
       <c r="S10">
-        <v>0.001154274117918627</v>
+        <v>0.004267390913669188</v>
       </c>
       <c r="T10">
-        <v>0.001154274117918627</v>
+        <v>0.004267390913669189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>230.638889913489</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="H11">
-        <v>230.638889913489</v>
+        <v>14.065637</v>
       </c>
       <c r="I11">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="J11">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.9557383878013</v>
+        <v>139.747495</v>
       </c>
       <c r="N11">
-        <v>11.9557383878013</v>
+        <v>419.242485</v>
       </c>
       <c r="O11">
-        <v>0.07351115824356583</v>
+        <v>0.6699032567416481</v>
       </c>
       <c r="P11">
-        <v>0.07351115824356583</v>
+        <v>0.6699032567416482</v>
       </c>
       <c r="Q11">
-        <v>2757.458229858579</v>
+        <v>655.2125121097715</v>
       </c>
       <c r="R11">
-        <v>2757.458229858579</v>
+        <v>5896.912608987945</v>
       </c>
       <c r="S11">
-        <v>0.06027943178762801</v>
+        <v>0.01084171174213181</v>
       </c>
       <c r="T11">
-        <v>0.06027943178762801</v>
+        <v>0.01084171174213181</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>230.638889913489</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="H12">
-        <v>230.638889913489</v>
+        <v>14.065637</v>
       </c>
       <c r="I12">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="J12">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>139.354778519998</v>
+        <v>0.04249866666666666</v>
       </c>
       <c r="N12">
-        <v>139.354778519998</v>
+        <v>0.127496</v>
       </c>
       <c r="O12">
-        <v>0.8568380173183575</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="P12">
-        <v>0.8568380173183575</v>
+        <v>0.0002037245476720547</v>
       </c>
       <c r="Q12">
-        <v>32140.63142199246</v>
+        <v>0.1992569394391111</v>
       </c>
       <c r="R12">
-        <v>32140.63142199246</v>
+        <v>1.793312454952</v>
       </c>
       <c r="S12">
-        <v>0.7026104614874447</v>
+        <v>3.297077299488952E-06</v>
       </c>
       <c r="T12">
-        <v>0.7026104614874447</v>
+        <v>3.297077299488953E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>230.638889913489</v>
+        <v>4.688545666666666</v>
       </c>
       <c r="H13">
-        <v>230.638889913489</v>
+        <v>14.065637</v>
       </c>
       <c r="I13">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="J13">
-        <v>0.8200038365319058</v>
+        <v>0.01618399617112621</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.3278998096756</v>
+        <v>13.81266366666667</v>
       </c>
       <c r="N13">
-        <v>11.3278998096756</v>
+        <v>41.437991</v>
       </c>
       <c r="O13">
-        <v>0.06965082443807667</v>
+        <v>0.06621333981390531</v>
       </c>
       <c r="P13">
-        <v>0.06965082443807667</v>
+        <v>0.06621333981390533</v>
       </c>
       <c r="Q13">
-        <v>2612.654237154804</v>
+        <v>64.7613043794741</v>
       </c>
       <c r="R13">
-        <v>2612.654237154804</v>
+        <v>582.8517394152669</v>
       </c>
       <c r="S13">
-        <v>0.05711394325683309</v>
+        <v>0.001071596438025722</v>
       </c>
       <c r="T13">
-        <v>0.05711394325683309</v>
+        <v>0.001071596438025723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>236.9790546666667</v>
+      </c>
+      <c r="H14">
+        <v>710.9371639999999</v>
+      </c>
+      <c r="I14">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="J14">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>55.00581500000001</v>
+      </c>
+      <c r="N14">
+        <v>165.017445</v>
+      </c>
+      <c r="O14">
+        <v>0.2636796788967745</v>
+      </c>
+      <c r="P14">
+        <v>0.2636796788967746</v>
+      </c>
+      <c r="Q14">
+        <v>13035.22603986955</v>
+      </c>
+      <c r="R14">
+        <v>117317.034358826</v>
+      </c>
+      <c r="S14">
+        <v>0.2156921008158636</v>
+      </c>
+      <c r="T14">
+        <v>0.2156921008158637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>236.9790546666667</v>
+      </c>
+      <c r="H15">
+        <v>710.9371639999999</v>
+      </c>
+      <c r="I15">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="J15">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.747495</v>
+      </c>
+      <c r="N15">
+        <v>419.242485</v>
+      </c>
+      <c r="O15">
+        <v>0.6699032567416481</v>
+      </c>
+      <c r="P15">
+        <v>0.6699032567416482</v>
+      </c>
+      <c r="Q15">
+        <v>33117.22925713472</v>
+      </c>
+      <c r="R15">
+        <v>298055.0633142125</v>
+      </c>
+      <c r="S15">
+        <v>0.5479862589128875</v>
+      </c>
+      <c r="T15">
+        <v>0.5479862589128877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>236.9790546666667</v>
+      </c>
+      <c r="H16">
+        <v>710.9371639999999</v>
+      </c>
+      <c r="I16">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="J16">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04249866666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.127496</v>
+      </c>
+      <c r="O16">
+        <v>0.0002037245476720547</v>
+      </c>
+      <c r="P16">
+        <v>0.0002037245476720547</v>
+      </c>
+      <c r="Q16">
+        <v>10.07129385126044</v>
+      </c>
+      <c r="R16">
+        <v>90.64164466134399</v>
+      </c>
+      <c r="S16">
+        <v>0.0001666483206403986</v>
+      </c>
+      <c r="T16">
+        <v>0.0001666483206403987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>236.9790546666667</v>
+      </c>
+      <c r="H17">
+        <v>710.9371639999999</v>
+      </c>
+      <c r="I17">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="J17">
+        <v>0.8180080532497269</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.81266366666667</v>
+      </c>
+      <c r="N17">
+        <v>41.437991</v>
+      </c>
+      <c r="O17">
+        <v>0.06621333981390531</v>
+      </c>
+      <c r="P17">
+        <v>0.06621333981390533</v>
+      </c>
+      <c r="Q17">
+        <v>3273.31197815528</v>
+      </c>
+      <c r="R17">
+        <v>29459.80780339752</v>
+      </c>
+      <c r="S17">
+        <v>0.05416304520033532</v>
+      </c>
+      <c r="T17">
+        <v>0.05416304520033533</v>
       </c>
     </row>
   </sheetData>
